--- a/biology/Médecine/Pietro_Tabarrani/Pietro_Tabarrani.xlsx
+++ b/biology/Médecine/Pietro_Tabarrani/Pietro_Tabarrani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pietro Tabarrani, né à Lombrici (Camaiore) le 3 mai 1702 et mort à Lucques le 5 avril 1779, est un médecin italien, membre de l’Académie des sciences de l'institut de Bologne
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pietro Tabarrani naquit à Lombrici dans la République de Lucques, le 3 mai 1702. Après sa première éducation, il alla se livrer à Pise à des études plus sérieuses, et prit le bonnet de docteur en philosophie et en médecine. Le cardinal Salviati l’emmena à Rome, en qualité de son médecin. Là, Tabarrani se livra plus particulièrement aux mathématiques et à l’anatomie, et il ouvrit un commerce de lettres avec le célèbre Pieter van Musschenbroek. Son protecteur étant mort en 1733, Tabarrani exerça encore quelque temps à Rome sa profession de médecin, sans abandonner l’étude de l’anatomie ; mais bientôt il se rendit à Bologne, où l’attirait la réputation des grands hommes que cette ville renfermait dans son sein. Il s’y lia étroitement avec les docteurs Domenico Maria Gusmano Galeazzi et Giacomo Bartolomeo Beccari ; le désir de connaître Jean-Baptiste Morgagni, le fit passer de là à Padoue, où il s’acquit l’estime de ce grand anatomiste et des savants professeurs Giulio Pontedera et Antonio Vallisneri. Il retourna ensuite à Lucques, où il resta jusqu’en 1759, temps où il fut appelé à Sienne pour y remplir la chaire d’anatomie, qui n’était occupée que par intérim depuis la retraite du célèbre Giovanni Bianchi de Rimini. Tabarrani fit revivre cette école illustre, y remit l’anatomie en faveur, et forma de savants élèves. Il avait déjà soixante-treize ans lorsqu’une double cataracte le rendit aveugle : en vain il se rendit à Lyon, pour se remettre entre les mains du fameux oculiste Jeannin ; il fut obligé de demander au grand-duc de Toscane de lui donner pour adjoint le docteur Paolo Mascagni, son élève, et mourut à Lucques, le 5 avril 1779, âgé de près de 76 ans.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ses ouvrages sont :
 Deux lettres sur la coupe de la forêt de Viareggio, la première imprimée deux fois, dont la deuxième édition est de Bassano, 1742, in-4° ; la seconde n’a été imprimée qu’une fois, Pesaro, 1741, in-4° ;
